--- a/data/trans_camb/P12B1_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_3_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-61,95</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-63,55</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-36,75</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56,65</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,41</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,24</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-27,48</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-32,25</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-9,64</t>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-2,6</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-2,27</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-89,51; -10,35</t>
+          <t>-6,97; 1,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-92,99; -5,65</t>
+          <t>-6,43; 1,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-83,03; 11,98</t>
+          <t>-5,5; 4,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>-7,08; 0,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,61</t>
+          <t>-6,92; 0,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,88; 89,07</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-61,94; 18,13</t>
+          <t>0,0; 3,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-68,09; 11,15</t>
+          <t>0,83; 7,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 31,87</t>
+          <t>-6,08; 0,79</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; 0,49</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 1,28</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 1,35</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 4,01</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,39; 0,05</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,02; -0,02</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-70,99%</t>
+          <t>-60,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-72,83%</t>
+          <t>-60,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-42,11%</t>
+          <t>-18,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-72,07%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-69,53%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-45,4%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-53,28%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-15,93%</t>
+          <t>-73,62%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-76,79%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-35,49%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-32,63%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>53,83%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-72,75%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-73,27%</t>
         </is>
       </c>
     </row>
@@ -791,17 +929,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -9,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-83,34; 18,93</t>
+          <t>-100,0; 423,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +959,47 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-84,7; 83,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-90,39; 46,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,05; 100,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-91,77; 257,71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-89,61; 206,85</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-67,96; 437,17</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 78,09</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 64,95</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66,34</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45,86</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>49,73</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,87</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,23</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,3</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>51,52</t>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-44,08; 36,03</t>
+          <t>-3,58; 2,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,37; 50,83</t>
+          <t>-4,55; 1,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,5; 91,47</t>
+          <t>-3,62; 2,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 86,82</t>
+          <t>-2,29; 6,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,39; 79,31</t>
+          <t>-8,18; 2,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,97; 85,37</t>
+          <t>0,45; 3,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 42,26</t>
+          <t>0,75; 4,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 50,07</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,03; 77,91</t>
+          <t>0,0; 6,89</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 6,16</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 2,32</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 2,06</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 2,16</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 4,79</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 3,42</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,88%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>-38,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>197,13%</t>
+          <t>-18,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>59,33%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-38,54%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>35,86%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>71,12%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>200,17%</t>
+          <t>246,57%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>110,21%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>53,41%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>38,59%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22,05%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>118,34%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-2,96%</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1265,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-88,71; 215,96</t>
+          <t>-100,0; 406,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,69; 444,67</t>
+          <t>-100,0; 265,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,36; 1072,03</t>
+          <t>-100,0; 462,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,17 +1295,47 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,07; 387,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 509,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,73; 1017,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-72,38; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-67,54; 571,11</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-61,58; 469,27</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-39,25; 776,85</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-69,44; 260,45</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,87</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>34,53</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-16,25</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-21,28</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,12</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,08</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 40,96</t>
+          <t>-0,89; 1,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 48,24</t>
+          <t>-0,1; 3,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 76,67</t>
+          <t>-0,37; 2,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-41,85; 6,65</t>
+          <t>-1,21; 11,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 1,58</t>
+          <t>-1,5; 11,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,45; 16,21</t>
+          <t>-3,08; 0,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-31,08; 11,86</t>
+          <t>-3,76; -0,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 16,47</t>
+          <t>-3,34; 1,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 33,55</t>
+          <t>-2,37; 1,77</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 2,29</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 0,7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 1,06</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 1,45</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 5,84</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 5,61</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>62,34%</t>
+          <t>71,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>167,27%</t>
+          <t>370,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>416,3%</t>
+          <t>227,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-49,21%</t>
+          <t>168,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-64,46%</t>
+          <t>136,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-39,75%</t>
+          <t>-43,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-34,17%</t>
+          <t>-69,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-26,83%</t>
+          <t>-33,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>-25,9%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-0,29%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-28,74%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-13,19%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,04%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>63,41%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>79,39%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1616,62 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-85,3; 54,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-92,49; 69,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,8; 116,6</t>
+          <t>-87,11; 105,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-80,98; 103,89</t>
+          <t>-93,59; 41,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-78,09; 108,92</t>
+          <t>-87,05; 115,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,57; 274,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-80,36; 105,98</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-74,93; 162,99</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-67,54; 211,52</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-71,47; 851,66</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-70,66; 1107,06</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,89</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-35,23</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-22,46</t>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,38</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-33,72; 29,86</t>
+          <t>-3,08; 3,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-37,67; 20,4</t>
+          <t>-3,46; 2,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-42,26; 13,73</t>
+          <t>-3,63; 2,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 21,48</t>
+          <t>-2,53; 4,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 28,85</t>
+          <t>-6,01; 2,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-60,13; 1,16</t>
+          <t>-4,23; 2,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 16,35</t>
+          <t>-3,43; 3,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 14,09</t>
+          <t>-5,81; 1,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-42,36; -2,28</t>
+          <t>-3,02; 3,06</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 5,01</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 1,7</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 2,19</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 0,77</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 2,61</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 2,49</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,99%</t>
+          <t>-3,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-18,4%</t>
+          <t>-12,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-29,51%</t>
+          <t>-16,64%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,45%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>-29,29%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-61,68%</t>
+          <t>-17,01%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-6,18%</t>
+          <t>-36,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-42,47%</t>
+          <t>-6,36%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>154,33%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-11,95%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-3,87%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-29,27%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,89; 99,69</t>
+          <t>-61,66; 161,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-61,15; 68,22</t>
+          <t>-63,92; 126,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 43,82</t>
+          <t>-68,05; 141,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,63; 48,49</t>
+          <t>-59,84; 302,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,3; 69,58</t>
+          <t>-73,68; 107,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-91,31; 6,12</t>
+          <t>-57,94; 72,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-37,57; 37,17</t>
+          <t>-45,27; 92,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 34,01</t>
+          <t>-75,37; 34,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-67,84; -2,85</t>
+          <t>-65,19; 161,96</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-58,66; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-48,39; 50,52</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-43,18; 63,66</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-61,03; 27,41</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-48,06; 113,75</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-56,24; 101,32</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-13,93</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>18,89</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-12,01</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-15,42</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-10,82</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-11,22</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-9,36</t>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,96</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-47,44; 23,83</t>
+          <t>-4,78; 1,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 52,21</t>
+          <t>-1,37; 5,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-35,71; 32,24</t>
+          <t>-0,57; 8,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 9,39</t>
+          <t>-4,65; 5,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-34,22; 7,16</t>
+          <t>-3,2; 6,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 9,74</t>
+          <t>-6,04; 4,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-32,2; 8,08</t>
+          <t>-6,38; 3,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 16,43</t>
+          <t>-8,23; 3,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 9,46</t>
+          <t>-4,29; 6,9</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 2,74</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 1,73</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 3,93</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,82; 3,67</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 4,64</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 3,24</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-29,58%</t>
+          <t>-41,76%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>70,36%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,04%</t>
+          <t>101,19%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-14,09%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-18,09%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-12,7%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-15,81%</t>
+          <t>-10,34%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-3,75%</t>
+          <t>-27,97%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-13,19%</t>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-27,12%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-18,15%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>10,81%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-8,06%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-75,25; 88,55</t>
+          <t>-86,09; 81,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 226,52</t>
+          <t>-33,61; 311,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 123,96</t>
+          <t>-20,12; 483,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 11,31</t>
+          <t>-50,28; 153,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,84; 9,45</t>
+          <t>-42,02; 211,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 12,68</t>
+          <t>-50,74; 68,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 12,49</t>
+          <t>-52,57; 60,9</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 27,4</t>
+          <t>-69,95; 53,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 16,43</t>
+          <t>-45,73; 189,94</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-59,62; 40,57</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-52,54; 37,07</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-32,77; 81,23</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-38,39; 80,38</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-36,47; 93,74</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-46,64; 51,04</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-7,59</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-10,07</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-8,83</t>
+          <t>-6,43</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-6,19</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-4,49</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 19,4</t>
+          <t>-12,04; 8,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,05; 23,13</t>
+          <t>-15,78; 4,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 10,41</t>
+          <t>-20,04; 0,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 4,85</t>
+          <t>1,45; 21,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 7,32</t>
+          <t>-4,18; 15,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 1,94</t>
+          <t>-9,08; 6,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 7,94</t>
+          <t>-7,51; 8,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 9,91</t>
+          <t>-11,86; 9,72</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 0,96</t>
+          <t>-18,56; 2,8</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-16,0; 4,87</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-8,9; 4,82</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 5,66</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-11,68; 4,17</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-6,75; 7,93</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-8,69; 6,52</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>-4,72%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>-19,16%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-8,37%</t>
+          <t>-45,12%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-10,51%</t>
+          <t>-7,22%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>-5,22%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-9,43%</t>
+          <t>-30,92%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-30,13%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-6,22%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-5,96%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-21,58%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-8,24%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 24,92</t>
+          <t>-47,28; 66,2</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2,08; 30,08</t>
+          <t>-58,76; 39,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 12,39</t>
+          <t>-75,53; 11,66</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 5,27</t>
+          <t>7,67; 344,73</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 8,13</t>
+          <t>-24,04; 149,2</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 2,0</t>
+          <t>-35,71; 34,9</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 8,82</t>
+          <t>-29,73; 50,69</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 11,16</t>
+          <t>-47,16; 53,88</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 1,05</t>
+          <t>-65,1; 23,84</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-61,52; 33,6</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-35,43; 28,42</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-32,71; 33,57</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-47,91; 25,96</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-34,51; 63,67</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-39,89; 44,53</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-8,11</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-6,33</t>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 9,94</t>
+          <t>-2,86; 1,19</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 10,7</t>
+          <t>-2,94; 1,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 12,13</t>
+          <t>-3,28; 0,96</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 6,0</t>
+          <t>-0,13; 4,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 7,52</t>
+          <t>-1,76; 3,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 6,21</t>
+          <t>-2,68; 1,52</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 3,87</t>
+          <t>-2,36; 2,31</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 4,38</t>
+          <t>-3,05; 2,36</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 4,0</t>
+          <t>-4,0; 1,4</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 1,15</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 0,84</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 1,28</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 1,18</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 2,66</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 1,38</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-12,91%</t>
+          <t>-14,18%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,53%</t>
+          <t>-11,85%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-9,47%</t>
+          <t>-18,49%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>48,65%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-4,44%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-8,54%</t>
+          <t>-8,7%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>-0,66%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-6,53%</t>
+          <t>-7,27%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>-13,83%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-19,77%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-10,94%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-5,2%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-11,9%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-6,54%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 18,23</t>
+          <t>-42,8; 33,24</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 18,9</t>
+          <t>-42,4; 32,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-31,08; 22,04</t>
+          <t>-48,22; 27,6</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 9,33</t>
+          <t>-4,65; 133,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 11,49</t>
+          <t>-26,46; 79,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 9,13</t>
+          <t>-31,77; 25,37</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 6,23</t>
+          <t>-27,76; 35,66</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 6,89</t>
+          <t>-36,87; 39,08</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 6,56</t>
+          <t>-45,86; 28,41</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-49,71; 19,47</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-30,65; 16,02</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-26,15; 23,38</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-34,42; 22,6</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-18,56; 55,35</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-32,18; 22,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
